--- a/examples/data/fedbatch_fedbatch1_testing_batchdata_noisy.xlsx
+++ b/examples/data/fedbatch_fedbatch1_testing_batchdata_noisy.xlsx
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210894641234992</v>
+        <v>-0.03894691160816487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009426138340100858</v>
+        <v>0.001181376608594687</v>
       </c>
       <c r="E2" t="n">
-        <v>11.34810722540849</v>
+        <v>13.10469244553638</v>
       </c>
       <c r="F2" t="n">
-        <v>1.476687193559224</v>
+        <v>0.9973663273957591</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2449442877902173</v>
+        <v>0.04189271786838571</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006767207355244411</v>
+        <v>0.0158569952742204</v>
       </c>
       <c r="E3" t="n">
-        <v>10.89728564211024</v>
+        <v>12.23998337316707</v>
       </c>
       <c r="F3" t="n">
-        <v>1.707609030678664</v>
+        <v>1.270281875368417</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3424367252018778</v>
+        <v>0.007923094263953101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05402907682550556</v>
+        <v>0.0284840373824107</v>
       </c>
       <c r="E4" t="n">
-        <v>10.42756448749308</v>
+        <v>11.47593175511552</v>
       </c>
       <c r="F4" t="n">
-        <v>1.808300531851038</v>
+        <v>1.441334968174913</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6983511929434723</v>
+        <v>0.2035618704688633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1394422435741477</v>
+        <v>0.07819245024522896</v>
       </c>
       <c r="E5" t="n">
-        <v>9.763664867203362</v>
+        <v>11.47627007482821</v>
       </c>
       <c r="F5" t="n">
-        <v>2.044411993782087</v>
+        <v>1.686022840556844</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.243504911600353</v>
+        <v>0.4676169911959533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2431257127744984</v>
+        <v>0.1029772182384992</v>
       </c>
       <c r="E6" t="n">
-        <v>8.577258306745838</v>
+        <v>10.66320428740444</v>
       </c>
       <c r="F6" t="n">
-        <v>2.279012933299579</v>
+        <v>1.885635634649808</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.367591091143135</v>
+        <v>1.026729988857598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5253423633511791</v>
+        <v>0.2162713695030083</v>
       </c>
       <c r="E7" t="n">
-        <v>5.925171674505435</v>
+        <v>9.429615271186719</v>
       </c>
       <c r="F7" t="n">
-        <v>2.435876557018006</v>
+        <v>2.146754785081508</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>4.318414527617783</v>
+        <v>1.907077876693615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8596211176657413</v>
+        <v>0.3655972038261643</v>
       </c>
       <c r="E8" t="n">
-        <v>2.076246379844719</v>
+        <v>7.706222446099655</v>
       </c>
       <c r="F8" t="n">
-        <v>2.64847628625899</v>
+        <v>2.368655658388005</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28051590996647</v>
+        <v>3.803429469152838</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0727108872894</v>
+        <v>0.7313161076372882</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04750344823342888</v>
+        <v>4.059683579748518</v>
       </c>
       <c r="F9" t="n">
-        <v>2.838016835298418</v>
+        <v>2.437240264897949</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>5.268054369727757</v>
+        <v>5.33077303117223</v>
       </c>
       <c r="D10" t="n">
-        <v>1.006860599274764</v>
+        <v>1.12353947029946</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02727675887133775</v>
+        <v>0.2992971300152706</v>
       </c>
       <c r="F10" t="n">
-        <v>3.085290906612521</v>
+        <v>2.842235943099494</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.299248784591412</v>
+        <v>5.519428861899066</v>
       </c>
       <c r="D11" t="n">
-        <v>1.058848269780352</v>
+        <v>1.080620775618097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1988448463166068</v>
+        <v>0.2603897733005219</v>
       </c>
       <c r="F11" t="n">
-        <v>3.435878517513311</v>
+        <v>2.864531383401171</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.274614671276473</v>
+        <v>5.508790381417733</v>
       </c>
       <c r="D12" t="n">
-        <v>1.053838769612615</v>
+        <v>1.085187539176868</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05094017858874472</v>
+        <v>0.1656446026383964</v>
       </c>
       <c r="F12" t="n">
-        <v>3.460289485712601</v>
+        <v>3.136754898773862</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.066327144114799</v>
+        <v>5.309832585040168</v>
       </c>
       <c r="D13" t="n">
-        <v>1.024920003719237</v>
+        <v>1.062855284202857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.418469989204692</v>
+        <v>0.2863876373312636</v>
       </c>
       <c r="F13" t="n">
-        <v>3.675557004597422</v>
+        <v>3.485724827465269</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47720451534062</v>
+        <v>5.239323079294235</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04446569999709</v>
+        <v>1.078470985196238</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1939091900599386</v>
+        <v>0.04160192071054486</v>
       </c>
       <c r="F14" t="n">
-        <v>4.021185650562835</v>
+        <v>3.5624821433028</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.107563644885934</v>
+        <v>5.404916469581448</v>
       </c>
       <c r="D15" t="n">
-        <v>1.052525849259699</v>
+        <v>1.046536309992986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3074672538753071</v>
+        <v>-0.1471329255591913</v>
       </c>
       <c r="F15" t="n">
-        <v>4.269802776470783</v>
+        <v>3.923084027747178</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.184225341468363</v>
+        <v>5.43422201344033</v>
       </c>
       <c r="D16" t="n">
-        <v>1.027475285861571</v>
+        <v>1.076062314329155</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2035783872853051</v>
+        <v>-0.3900594930673589</v>
       </c>
       <c r="F16" t="n">
-        <v>4.448610084176432</v>
+        <v>3.998439824079672</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.145978532336077</v>
+        <v>5.320994240824483</v>
       </c>
       <c r="D17" t="n">
-        <v>1.046888447222392</v>
+        <v>1.095375895265786</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1845322763543718</v>
+        <v>0.4293672218661578</v>
       </c>
       <c r="F17" t="n">
-        <v>4.629861503313274</v>
+        <v>4.316501546213451</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.240334327972106</v>
+        <v>5.338474167716835</v>
       </c>
       <c r="D18" t="n">
-        <v>1.023553137063038</v>
+        <v>1.035345226048734</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01889397495784959</v>
+        <v>0.003477358230909201</v>
       </c>
       <c r="F18" t="n">
-        <v>4.553287281971151</v>
+        <v>4.505073724971357</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.378214256182498</v>
+        <v>5.392570555819807</v>
       </c>
       <c r="D19" t="n">
-        <v>1.02473907486493</v>
+        <v>1.068516094169311</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3164667446343571</v>
+        <v>0.108617920072374</v>
       </c>
       <c r="F19" t="n">
-        <v>5.10453763565251</v>
+        <v>4.612045008275836</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.211249765702406</v>
+        <v>5.261947713374816</v>
       </c>
       <c r="D20" t="n">
-        <v>1.013285469579695</v>
+        <v>1.020190066779958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07976155530824919</v>
+        <v>0.002599450383159195</v>
       </c>
       <c r="F20" t="n">
-        <v>5.40281329727236</v>
+        <v>4.871100799269965</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.30206247018704</v>
+        <v>5.28758212566057</v>
       </c>
       <c r="D21" t="n">
-        <v>1.033335174189455</v>
+        <v>1.043548509832217</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06302966050816809</v>
+        <v>0.3199827222185719</v>
       </c>
       <c r="F21" t="n">
-        <v>5.495367188225154</v>
+        <v>5.220057609246691</v>
       </c>
     </row>
   </sheetData>
